--- a/analysis/xlsx/2023/2023_지역별_판매량.xlsx
+++ b/analysis/xlsx/2023/2023_지역별_판매량.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="상위5_집계" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>지역</t>
   </si>
@@ -22,7 +22,19 @@
     <t>공급가액</t>
   </si>
   <si>
+    <t>서울특별시</t>
+  </si>
+  <si>
     <t>고성군</t>
+  </si>
+  <si>
+    <t>거제시</t>
+  </si>
+  <si>
+    <t>포항시</t>
+  </si>
+  <si>
+    <t>당진시</t>
   </si>
 </sst>
 </file>
@@ -399,39 +411,39 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>41924000</v>
+        <v>10519000</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>41924000</v>
+        <v>9762000</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B4">
-        <v>41924000</v>
+        <v>9112000</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>41924000</v>
+        <v>8769000</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>41924000</v>
+        <v>8454000</v>
       </c>
     </row>
   </sheetData>

--- a/analysis/xlsx/2023/2023_지역별_판매량.xlsx
+++ b/analysis/xlsx/2023/2023_지역별_판매량.xlsx
@@ -22,19 +22,19 @@
     <t>공급가액</t>
   </si>
   <si>
-    <t>서울특별시</t>
+    <t>청양군</t>
   </si>
   <si>
     <t>고성군</t>
   </si>
   <si>
-    <t>거제시</t>
-  </si>
-  <si>
-    <t>포항시</t>
-  </si>
-  <si>
-    <t>당진시</t>
+    <t>강진군</t>
+  </si>
+  <si>
+    <t>영천시</t>
+  </si>
+  <si>
+    <t>인천 동구</t>
   </si>
 </sst>
 </file>
@@ -411,7 +411,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>10519000</v>
+        <v>9108000</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -419,7 +419,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>9762000</v>
+        <v>8425000</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -427,7 +427,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>9112000</v>
+        <v>8323000</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -435,7 +435,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>8769000</v>
+        <v>8132000</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -443,7 +443,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>8454000</v>
+        <v>7577000</v>
       </c>
     </row>
   </sheetData>

--- a/analysis/xlsx/2023/2023_지역별_판매량.xlsx
+++ b/analysis/xlsx/2023/2023_지역별_판매량.xlsx
@@ -31,26 +31,26 @@
     <t>설명</t>
   </si>
   <si>
-    <t>권선구</t>
-  </si>
-  <si>
-    <t>기흥구</t>
-  </si>
-  <si>
-    <t>남구</t>
-  </si>
-  <si>
-    <t>단원구</t>
-  </si>
-  <si>
-    <t>덕양구</t>
-  </si>
-  <si>
-    <t>2023년도 권선구 - 공급가액: 3202659000, 예측 공급가액: 97050272.72727273
-2023년도 기흥구 - 공급가액: 3202659000, 예측 공급가액: 97050272.72727273
-2023년도 남구 - 공급가액: 3202659000, 예측 공급가액: 97050272.72727273
-2023년도 단원구 - 공급가액: 3202659000, 예측 공급가액: 97050272.72727273
-2023년도 덕양구 - 공급가액: 3202659000, 예측 공급가액: 97050272.72727273</t>
+    <t>군포시</t>
+  </si>
+  <si>
+    <t>서울특별시 종로구</t>
+  </si>
+  <si>
+    <t>산청군</t>
+  </si>
+  <si>
+    <t>정선군</t>
+  </si>
+  <si>
+    <t>서울특별시 동작구</t>
+  </si>
+  <si>
+    <t>2023년도 군포시 - 공급가액: 30891000, 예측 공급가액: 33980100.0
+2023년도 서울특별시 종로구 - 공급가액: 29332000, 예측 공급가액: 32265200.000000004
+2023년도 산청군 - 공급가액: 28591000, 예측 공급가액: 31450100.000000004
+2023년도 정선군 - 공급가액: 27146000, 예측 공급가액: 29860600.000000004
+2023년도 서울특별시 동작구 - 공급가액: 26365000, 예측 공급가액: 29001500.000000004</t>
   </si>
 </sst>
 </file>
@@ -439,10 +439,10 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>3202659000</v>
+        <v>30891000</v>
       </c>
       <c r="D2">
-        <v>97050272.72727273</v>
+        <v>33980100</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
@@ -456,10 +456,10 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>3202659000</v>
+        <v>29332000</v>
       </c>
       <c r="D3">
-        <v>97050272.72727273</v>
+        <v>32265200</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -470,10 +470,10 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>3202659000</v>
+        <v>28591000</v>
       </c>
       <c r="D4">
-        <v>97050272.72727273</v>
+        <v>31450100</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -484,10 +484,10 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>3202659000</v>
+        <v>27146000</v>
       </c>
       <c r="D5">
-        <v>97050272.72727273</v>
+        <v>29860600</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -498,10 +498,10 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>3202659000</v>
+        <v>26365000</v>
       </c>
       <c r="D6">
-        <v>97050272.72727273</v>
+        <v>29001500</v>
       </c>
     </row>
   </sheetData>
